--- a/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-01-2026.xlsx
+++ b/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-01-2026.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D62E35-6BB8-46EA-B9DF-9355AAEB71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7365F1AE-49D3-452B-9DFD-4703863BEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng tính CK" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -244,6 +244,9 @@
   <si>
     <t>PHIẾU XÁC NHẬN TỒN 
 SẢN XUẤT THÁNG 01 - 2026</t>
+  </si>
+  <si>
+    <t>Tồn lỗi + chưa nâng cấp lên 4G</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1492,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,8 +1821,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="51">
         <v>100</v>
@@ -2373,8 +2376,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,9 +2705,11 @@
         <v>250</v>
       </c>
       <c r="F17" s="42">
-        <v>0</v>
-      </c>
-      <c r="G17" s="128"/>
+        <v>87</v>
+      </c>
+      <c r="G17" s="128" t="s">
+        <v>73</v>
+      </c>
       <c r="H17" s="128"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,7 +2731,7 @@
       </c>
       <c r="F18" s="44">
         <f>SUM(F10:F17)</f>
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="148"/>

--- a/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-01-2026.xlsx
+++ b/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-01-2026.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7365F1AE-49D3-452B-9DFD-4703863BEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D3D50-A3B1-4B00-B10E-E6EE1FBBC57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng tính CK" sheetId="1" r:id="rId1"/>
@@ -813,21 +813,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,6 +861,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -939,21 +951,53 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,50 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,74 +1506,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="95" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="100" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="70"/>
-      <c r="E6" s="97" t="str">
+      <c r="E6" s="92" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 30 tháng 01 năm 2026</v>
       </c>
-      <c r="F6" s="97"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,10 +1636,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="54">
         <f>SUM(C11:C11)</f>
         <v>250</v>
@@ -1649,12 +1649,12 @@
       <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="53">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
@@ -1678,33 +1678,33 @@
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="86"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="27" t="s">
         <v>7</v>
       </c>
@@ -1742,17 +1742,17 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1791,6 +1791,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C2:F2"/>
@@ -1799,14 +1807,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1821,7 +1821,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1844,64 +1844,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="110"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="121" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="127"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="100" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74"/>
@@ -1950,10 +1950,10 @@
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="118"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="52">
         <f>'Bảng tính CK'!E13</f>
         <v>1500000</v>
@@ -1965,10 +1965,10 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="52">
         <v>4</v>
       </c>
@@ -1979,10 +1979,10 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="49">
         <v>0</v>
       </c>
@@ -1993,10 +1993,10 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="109"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="49">
         <f>COUNTIFS(C16:C21, "&gt;=2.5",C16:C21,"&lt;7")</f>
         <v>0</v>
@@ -2156,11 +2156,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="50">
         <f>SUM(D16:D19)</f>
         <v>400</v>
@@ -2193,11 +2193,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="33"/>
       <c r="E22" s="53">
         <f>SUM(E16:E19)</f>
@@ -2240,40 +2240,40 @@
       <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126" t="s">
+      <c r="D25" s="104"/>
+      <c r="E25" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="125" t="s">
+      <c r="F25" s="105"/>
+      <c r="G25" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="125"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="127" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="86" t="s">
+      <c r="F26" s="106"/>
+      <c r="G26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="102"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
@@ -2316,25 +2316,36 @@
       <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="126"/>
-      <c r="G31" s="125" t="s">
+      <c r="F31" s="105"/>
+      <c r="G31" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="125"/>
+      <c r="H31" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A31:B31"/>
@@ -2348,17 +2359,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2376,8 +2376,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,27 +2478,27 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="150"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="37" t="s">
         <v>16</v>
       </c>
@@ -2511,8 +2511,8 @@
       <c r="F9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2535,10 +2535,10 @@
         <f>D10-E10</f>
         <v>301</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="128"/>
+      <c r="H10" s="130"/>
       <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2561,10 +2561,10 @@
         <f>D11-E11</f>
         <v>2</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="130"/>
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,10 +2587,10 @@
         <f t="shared" ref="F12" si="0">D12</f>
         <v>178</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="128"/>
+      <c r="H12" s="130"/>
       <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <f>D13-E13</f>
         <v>52</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="128"/>
+      <c r="H13" s="130"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
@@ -2638,10 +2638,10 @@
         <f>D14-E14</f>
         <v>22</v>
       </c>
-      <c r="G14" s="128" t="s">
+      <c r="G14" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="128"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
@@ -2663,10 +2663,10 @@
         <f>D15-E15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="128" t="s">
+      <c r="G15" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="128"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
@@ -2687,10 +2687,10 @@
       <c r="F16" s="42">
         <v>3</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="128"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
@@ -2707,16 +2707,16 @@
       <c r="F17" s="42">
         <v>87</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="130"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="146"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="44">
         <f>SUM(C10:C17)</f>
         <v>1960</v>
@@ -2733,8 +2733,8 @@
         <f>SUM(F10:F17)</f>
         <v>647</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -2747,40 +2747,40 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150" t="s">
+      <c r="D20" s="129"/>
+      <c r="E20" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="85" t="s">
+      <c r="F20" s="129"/>
+      <c r="G20" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86" t="s">
+      <c r="F21" s="102"/>
+      <c r="G21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="86"/>
+      <c r="H21" s="102"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
@@ -2823,22 +2823,22 @@
       <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149" t="s">
+      <c r="D26" s="128"/>
+      <c r="E26" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149" t="s">
+      <c r="F26" s="128"/>
+      <c r="G26" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="149"/>
+      <c r="H26" s="128"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
@@ -2852,6 +2852,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:F3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
@@ -2864,26 +2884,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:F3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H9"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
